--- a/MainTop/03.06.2025/print_sorted.xlsx
+++ b/MainTop/03.06.2025/print_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\03.06.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0170F2-359B-47DD-825A-7566C5DF62A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1363B7E-532E-4B31-9306-A9B72BF101E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="82">
   <si>
     <t>Артикул</t>
   </si>
@@ -277,12 +277,6 @@
   </si>
   <si>
     <t>Термобирки Дисней мальчики</t>
-  </si>
-  <si>
-    <t>Термонаклейка Тигр розовый крупный план</t>
-  </si>
-  <si>
-    <t>6_а4_настройки_60</t>
   </si>
 </sst>
 </file>
@@ -303,7 +297,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,12 +334,6 @@
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA07A"/>
-        <bgColor rgb="FFFFA07A"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -374,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -384,7 +372,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -688,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2995,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G61" s="4">
         <v>0</v>
@@ -3058,84 +3045,84 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63" s="4">
-        <v>0</v>
-      </c>
-      <c r="C63" s="4">
-        <v>0</v>
-      </c>
-      <c r="D63" s="4">
-        <v>0</v>
-      </c>
-      <c r="E63" s="4">
-        <v>2</v>
-      </c>
-      <c r="F63" s="4">
-        <v>2</v>
-      </c>
-      <c r="G63" s="4">
-        <v>0</v>
-      </c>
-      <c r="H63" s="4">
-        <v>0</v>
-      </c>
-      <c r="I63" s="4">
-        <v>0</v>
-      </c>
-      <c r="J63" s="4">
-        <v>0</v>
-      </c>
-      <c r="K63" s="4">
-        <v>4</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>45</v>
+      <c r="A63" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="5">
+        <v>10</v>
+      </c>
+      <c r="C63" s="5">
+        <v>18</v>
+      </c>
+      <c r="D63" s="5">
+        <v>18</v>
+      </c>
+      <c r="E63" s="5">
+        <v>144</v>
+      </c>
+      <c r="F63" s="5">
+        <v>204</v>
+      </c>
+      <c r="G63" s="5">
+        <v>30</v>
+      </c>
+      <c r="H63" s="5">
+        <v>22</v>
+      </c>
+      <c r="I63" s="5">
+        <v>42</v>
+      </c>
+      <c r="J63" s="5">
+        <v>4</v>
+      </c>
+      <c r="K63" s="5">
+        <v>492</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64" s="5">
+      <c r="A64" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="6">
+        <v>4</v>
+      </c>
+      <c r="C64" s="6">
+        <v>4</v>
+      </c>
+      <c r="D64" s="6">
+        <v>12</v>
+      </c>
+      <c r="E64" s="6">
         <v>10</v>
       </c>
-      <c r="C64" s="5">
-        <v>18</v>
-      </c>
-      <c r="D64" s="5">
-        <v>18</v>
-      </c>
-      <c r="E64" s="5">
-        <v>144</v>
-      </c>
-      <c r="F64" s="5">
-        <v>204</v>
-      </c>
-      <c r="G64" s="5">
-        <v>30</v>
-      </c>
-      <c r="H64" s="5">
-        <v>22</v>
-      </c>
-      <c r="I64" s="5">
-        <v>42</v>
-      </c>
-      <c r="J64" s="5">
-        <v>4</v>
-      </c>
-      <c r="K64" s="5">
-        <v>492</v>
-      </c>
-      <c r="L64" s="5" t="s">
+      <c r="F64" s="6">
+        <v>86</v>
+      </c>
+      <c r="G64" s="6">
+        <v>4</v>
+      </c>
+      <c r="H64" s="6">
+        <v>4</v>
+      </c>
+      <c r="I64" s="6">
+        <v>4</v>
+      </c>
+      <c r="J64" s="6">
+        <v>4</v>
+      </c>
+      <c r="K64" s="6">
+        <v>132</v>
+      </c>
+      <c r="L64" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B65" s="6">
         <v>4</v>
@@ -3144,13 +3131,13 @@
         <v>4</v>
       </c>
       <c r="D65" s="6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E65" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F65" s="6">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="G65" s="6">
         <v>4</v>
@@ -3165,7 +3152,7 @@
         <v>4</v>
       </c>
       <c r="K65" s="6">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="L65" s="6" t="s">
         <v>76</v>
@@ -3173,37 +3160,37 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B66" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C66" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" s="6">
         <v>4</v>
       </c>
       <c r="E66" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F66" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G66" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H66" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I66" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J66" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K66" s="6">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L66" s="6" t="s">
         <v>76</v>
@@ -3211,37 +3198,37 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B67" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D67" s="6">
         <v>4</v>
       </c>
       <c r="E67" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F67" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G67" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H67" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K67" s="6">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="L67" s="6" t="s">
         <v>76</v>
@@ -3249,7 +3236,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B68" s="6">
         <v>0</v>
@@ -3258,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E68" s="6">
         <v>0</v>
@@ -3279,131 +3266,25 @@
         <v>0</v>
       </c>
       <c r="K68" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L68" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B69" s="6">
-        <v>0</v>
-      </c>
-      <c r="C69" s="6">
-        <v>0</v>
-      </c>
-      <c r="D69" s="6">
-        <v>2</v>
-      </c>
-      <c r="E69" s="6">
-        <v>0</v>
-      </c>
-      <c r="F69" s="6">
-        <v>0</v>
-      </c>
-      <c r="G69" s="6">
-        <v>0</v>
-      </c>
-      <c r="H69" s="6">
-        <v>0</v>
-      </c>
-      <c r="I69" s="6">
-        <v>0</v>
-      </c>
-      <c r="J69" s="6">
-        <v>0</v>
-      </c>
-      <c r="K69" s="6">
-        <v>2</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B70" s="7">
-        <v>4</v>
-      </c>
-      <c r="C70" s="7">
-        <v>0</v>
-      </c>
-      <c r="D70" s="7">
-        <v>0</v>
-      </c>
-      <c r="E70" s="7">
-        <v>0</v>
-      </c>
-      <c r="F70" s="7">
-        <v>0</v>
-      </c>
-      <c r="G70" s="7">
-        <v>0</v>
-      </c>
-      <c r="H70" s="7">
-        <v>0</v>
-      </c>
-      <c r="I70" s="7">
-        <v>4</v>
-      </c>
-      <c r="J70" s="7">
-        <v>0</v>
-      </c>
-      <c r="K70" s="7">
-        <v>8</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8">
-        <f>SUM(B2:B70)</f>
-        <v>105</v>
-      </c>
-      <c r="C71" s="8">
-        <f t="shared" ref="C71:K71" si="0">SUM(C2:C70)</f>
-        <v>80</v>
-      </c>
-      <c r="D71" s="8">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="E71" s="8">
-        <f t="shared" si="0"/>
-        <v>381</v>
-      </c>
-      <c r="F71" s="8">
-        <f t="shared" si="0"/>
-        <v>464</v>
-      </c>
-      <c r="G71" s="8">
-        <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="H71" s="8">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="I71" s="8">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="J71" s="8">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="K71" s="8">
-        <f t="shared" si="0"/>
-        <v>1484</v>
-      </c>
-      <c r="L71" s="8"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
